--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC26_Verify_Clear_Cart.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC26_Verify_Clear_Cart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Rohit\Automation\Demo\Kaman\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D8EA6-A23D-40F0-88D2-08A1DF1227D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07530C-BD38-4F83-A552-143510C6CF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -835,44 +835,44 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
@@ -881,51 +881,47 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
@@ -934,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -944,17 +940,15 @@
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
@@ -962,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -977,27 +971,29 @@
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
@@ -1005,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1018,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -1027,16 +1023,29 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1051,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1348,12 +1357,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1550,6 +1553,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1560,15 +1569,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1587,6 +1587,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
